--- a/Dokumentasi/Link Tugas DPW2 Marisa(3042020024).xlsx
+++ b/Dokumentasi/Link Tugas DPW2 Marisa(3042020024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project16\Dokumentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419E533-F418-45CB-82F6-666159270453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA74A1-9F4F-4085-809B-7FB1C78CBF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3C9EDEEB-FF15-4F8E-877A-E0EB359BFA8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -39,9 +39,6 @@
     <t>link Instagram</t>
   </si>
   <si>
-    <t>Link Instagram IGTV</t>
-  </si>
-  <si>
     <t>Link Youtube</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Project15- DPW2</t>
   </si>
   <si>
-    <t>Project16- DPW2</t>
-  </si>
-  <si>
     <t>Project8- DPW2-UTS</t>
   </si>
   <si>
@@ -136,6 +130,66 @@
   </si>
   <si>
     <t>https://github.com/marisa033/project15-DPW2</t>
+  </si>
+  <si>
+    <t>https://github.com/marisa033/project16-DPW2-UAS</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CUHqNvopa73/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/p/CUwSxw7Po3B/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CU3gAclh5oA/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/p/CVNjQqRPsQW/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CVVLaCEvMQq/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/p/CVkAxERP_Qe/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/p/CVkaE3QPZYU/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/tv/CYy9R2ChWgX/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CW_FdvsvW2X/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marisaatnita_/tv/CYSv3lrh_gp/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYSwotLB6M0/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYdj5Bfh2cC/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYgoGM2hj-t/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYl5gq0hXr6/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYsvBdrhYGs/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CYzGYwmBXXA/?utm_medium=copy_link</t>
+  </si>
+  <si>
+    <t>https://youtu.be/s5I_kZ9cmMY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MsUDIu58NeQ</t>
+  </si>
+  <si>
+    <t>Project16- DPW2-UAS</t>
   </si>
 </sst>
 </file>
@@ -178,15 +232,27 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,19 +260,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -525,15 +613,15 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="79.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,26 +648,24 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -597,17 +683,19 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -626,17 +714,19 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -655,17 +745,19 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -684,17 +776,19 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -713,17 +807,19 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -742,17 +838,19 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -771,17 +869,19 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -800,17 +900,21 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -829,17 +933,19 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -858,17 +964,19 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -887,17 +995,19 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -916,17 +1026,19 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -945,17 +1057,19 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -974,17 +1088,19 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1003,17 +1119,19 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1032,15 +1150,21 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1173,7 +1297,12 @@
       <c r="U23" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{CDADA5AC-1942-4AC1-B12B-F26AB12A7FC9}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{741D5B26-07E4-47CE-A5B2-A813F14EE839}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{09323E96-F0DA-4E64-953B-2EDCE6BFAFC2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>